--- a/biology/Botanique/Drave_faux_Aïzoon/Drave_faux_Aïzoon.xlsx
+++ b/biology/Botanique/Drave_faux_Aïzoon/Drave_faux_Aïzoon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drave_faux_A%C3%AFzoon</t>
+          <t>Drave_faux_Aïzoon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Draba aizoides
 La Drave faux Aïzoon (Draba aizoides) est une espèce de plante herbacée vivace du genre Draba et de la famille des Brassicaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Drave_faux_A%C3%AFzoon</t>
+          <t>Drave_faux_Aïzoon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante formant des coussinets de 5 à 15 cm. Les tiges ne portent pas de feuilles ; celles-ci, disposées en rosettes, sont rigides, ciliées, à limbe linéaire. Les fleurs sont jaunes. Les fruits, des silicules, sont longs de 6 à 12 mm.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Drave_faux_A%C3%AFzoon</t>
+          <t>Drave_faux_Aïzoon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Régions montagneuses d'Europe méridionale et centrale, des Pyrénées aux Balkans. Station isolée dans le Sud-Ouest de l'Angleterre et en Belgique (rochers en bord de Meuse)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Régions montagneuses d'Europe méridionale et centrale, des Pyrénées aux Balkans. Station isolée dans le Sud-Ouest de l'Angleterre et en Belgique (rochers en bord de Meuse).
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drave_faux_A%C3%AFzoon</t>
+          <t>Drave_faux_Aïzoon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette drave se développe sur des rochers calcaires éclairés ou des pelouses. Elle fleurit d'avril à juin.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Drave_faux_A%C3%AFzoon</t>
+          <t>Drave_faux_Aïzoon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée en Alsace (Article 1).
 </t>
